--- a/CATs++ Boosting Cost Aggregation with Convolutions and Transformers/result.xlsx
+++ b/CATs++ Boosting Cost Aggregation with Convolutions and Transformers/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\paper_review\CATs++ Boosting Cost Aggregation with Convolutions and Transformers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85129D12-B477-46E8-847E-A9FC8CC111D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8BDA3B-345B-4C04-8AE5-787BEDC14F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="3960" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="4170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>base</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>base w/o corr_norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base w l1_corr_norm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -397,7 +401,7 @@
     <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +420,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -433,11 +440,17 @@
       <c r="E2">
         <v>3.0627666398098499</v>
       </c>
+      <c r="F2">
+        <v>4.8312658761676897</v>
+      </c>
       <c r="G2">
         <v>10.196931613119</v>
       </c>
+      <c r="H2">
+        <v>3.1534650702225502</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -453,8 +466,14 @@
       <c r="E3">
         <v>73.057253122421301</v>
       </c>
+      <c r="F3">
+        <v>59.158187703830002</v>
+      </c>
       <c r="G3">
         <v>17.6764153556894</v>
+      </c>
+      <c r="H3">
+        <v>69.742842682051801</v>
       </c>
     </row>
   </sheetData>
